--- a/medicine/Mort/Monument_aux_morts_d'Aniane/Monument_aux_morts_d'Aniane.xlsx
+++ b/medicine/Mort/Monument_aux_morts_d'Aniane/Monument_aux_morts_d'Aniane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Aniane</t>
+          <t>Monument_aux_morts_d'Aniane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le monument aux morts d'Aniane, réalisé par le sculpteur Jacques Louis Robert Villeneuve, est situé à Aniane dans le département de l'Hérault[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le monument aux morts d'Aniane, réalisé par le sculpteur Jacques Louis Robert Villeneuve, est situé à Aniane dans le département de l'Hérault.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Aniane</t>
+          <t>Monument_aux_morts_d'Aniane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument est constitué d'un obélisque surmonté d'un visage de douleurs, symbolisant les souffrances subies lors de la Première Guerre mondiale qui se déroula de 1914 à 1918. Une inscription d'inspiration pacifiste en occitan vient compléter cette sculpture :
 « La guerra qu’an vougutes la guerra a la guerra.Son morts per nostra terrae per touta la terra. »
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Monument_aux_morts_d%27Aniane</t>
+          <t>Monument_aux_morts_d'Aniane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La commune d'Aniane a passé le 10 février 1923, un contrat avec le sculpteur parisien Jacques Louis Robert Villeneuve afin que ce dernier réalise le monument aux morts. La réception du monument s'est effectuée le 24 juin 1924.
 </t>
